--- a/Wemos D1 R32/Weemos CNC30 UNO Mapping.xlsx
+++ b/Wemos D1 R32/Weemos CNC30 UNO Mapping.xlsx
@@ -1266,7 +1266,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
